--- a/results/region_genre_08_action.xlsx
+++ b/results/region_genre_08_action.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>242449.5677</v>
+        <v>255897.1662</v>
       </c>
       <c r="G2" t="n">
         <v>0.001</v>
       </c>
       <c r="H2" t="n">
-        <v>209150.2838</v>
+        <v>191874.8261</v>
       </c>
       <c r="I2" t="n">
-        <v>275748.8516</v>
+        <v>319919.5063</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7984.5101</v>
+        <v>-41292.7779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.8077</v>
       </c>
       <c r="H3" t="n">
-        <v>-25314.7738</v>
+        <v>-107745.169</v>
       </c>
       <c r="I3" t="n">
-        <v>41283.794</v>
+        <v>25159.6131</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>112069.5245</v>
+        <v>102302.943</v>
       </c>
       <c r="G4" t="n">
         <v>0.001</v>
       </c>
       <c r="H4" t="n">
-        <v>78770.2406</v>
+        <v>37247.2476</v>
       </c>
       <c r="I4" t="n">
-        <v>145368.8084</v>
+        <v>167358.6384</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-234465.0576</v>
+        <v>-297189.9442</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>-267764.3415</v>
+        <v>-351654.4349</v>
       </c>
       <c r="I5" t="n">
-        <v>-201165.7737</v>
+        <v>-242725.4534</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-130380.0432</v>
+        <v>-153594.2232</v>
       </c>
       <c r="G6" t="n">
         <v>0.001</v>
       </c>
       <c r="H6" t="n">
-        <v>-163679.3271</v>
+        <v>-206345.5643</v>
       </c>
       <c r="I6" t="n">
-        <v>-97080.75930000001</v>
+        <v>-100842.8822</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>104085.0144</v>
+        <v>143595.7209</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
       </c>
       <c r="H7" t="n">
-        <v>70785.73050000001</v>
+        <v>87920.1946</v>
       </c>
       <c r="I7" t="n">
-        <v>137384.2983</v>
+        <v>199271.2473</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
